--- a/Projeto-Documentacao/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Tabela de Requisitos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Documents\Curso do Romão\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6673F9-A43A-4304-9940-303C5DE6E57B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{CA5997F7-E117-44C9-92C4-CB1C52444F60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Requisitos</t>
   </si>
@@ -90,9 +89,6 @@
     <t>Importante</t>
   </si>
   <si>
-    <t>Desejável</t>
-  </si>
-  <si>
     <t>RF15</t>
   </si>
   <si>
@@ -553,12 +549,160 @@
       </rPr>
       <t xml:space="preserve"> de documentos a qualquer instante.</t>
     </r>
+  </si>
+  <si>
+    <t>RNF18</t>
+  </si>
+  <si>
+    <t>RNF19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E necessario conexão com a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Internet' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para ter acesso ao site e ao Software.</t>
+    </r>
+  </si>
+  <si>
+    <t>RNF20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deve ser instalado um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'arduino'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para comandar o sensor e registrar os dados para o site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Banco de dados'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SQL server) na nuvem para armazenamento de dados do usuario.</t>
+    </r>
+  </si>
+  <si>
+    <t>RNF21</t>
+  </si>
+  <si>
+    <t>RNF22</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> É necessario um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Computador'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> É opcional a ultilização de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Smart Phone'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
+    </r>
+  </si>
+  <si>
+    <t>Desejavel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +770,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -644,12 +787,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E1A2440-FC30-42C0-8CE8-8F935D7BA084}" name="Tabela1" displayName="Tabela1" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{B11509D7-151B-453D-8B0A-20BAEBB78DB1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E9DE8AF4-3320-493A-BD45-9338BCA01C71}" name="Requisitos"/>
-    <tableColumn id="2" xr3:uid="{F5DC5911-17DC-4C79-9D7D-617211EBC1BA}" name="Descrição"/>
-    <tableColumn id="3" xr3:uid="{69DE68DE-4843-4A08-8273-C69C3D142087}" name="Classificação" dataDxfId="0"/>
+    <tableColumn id="1" name="Requisitos"/>
+    <tableColumn id="2" name="Descrição"/>
+    <tableColumn id="3" name="Classificação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,11 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26640FFD-3F3C-4728-B816-6D85D3E4C97C}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -992,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1003,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1014,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1025,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1036,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1047,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1058,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1069,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1080,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1091,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1102,10 +1245,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1132,10 +1275,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -1143,10 +1286,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -1154,13 +1297,68 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto-Documentacao/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Tabela de Requisitos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Requisitos</t>
   </si>
@@ -223,18 +223,143 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Cadastro deve ter um Botão de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cadastra-se</t>
+      <t>O Software deve conter um</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Menu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, para opções.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Monitoramento'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Mostrando Graficos ao Usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Historico'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, que mostre ao usuario todo o controle de temperatura e umidade por dia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Alerta'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, que mostre ao usuario possiveis problemas detectados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Graficos deve mostrar taxas de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Temperatura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Umidade</t>
     </r>
     <r>
       <rPr>
@@ -249,173 +374,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Login deve ter um Botão de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>logar-se.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>O Software deve conter um</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Menu'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, para opções.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Monitoramento'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Mostrando Graficos ao Usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Historico'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, que mostre ao usuario todo o controle de temperatura e umidade por dia.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Alerta'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, que mostre ao usuario possiveis problemas detectados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Graficos deve mostrar taxas de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Temperatura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Umidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A Página institucional deve conter um campo  </t>
     </r>
     <r>
@@ -467,9 +425,6 @@
     </r>
   </si>
   <si>
-    <t>RF16</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">O Software deve ter um </t>
     </r>
@@ -522,9 +477,6 @@
     </r>
   </si>
   <si>
-    <t>RF17</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Alerta deve permitir que seja feito </t>
     </r>
@@ -638,12 +590,6 @@
     </r>
   </si>
   <si>
-    <t>RNF21</t>
-  </si>
-  <si>
-    <t>RNF22</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> É necessario um </t>
     </r>
@@ -697,6 +643,12 @@
   </si>
   <si>
     <t>Desejavel</t>
+  </si>
+  <si>
+    <t>RNF16</t>
+  </si>
+  <si>
+    <t>RNF17</t>
   </si>
 </sst>
 </file>
@@ -787,8 +739,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C23" totalsRowShown="0">
-  <autoFilter ref="A1:C23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Requisitos"/>
     <tableColumn id="2" name="Descrição"/>
@@ -1095,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1190,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1201,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1166,7 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1223,9 +1175,9 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1234,10 +1186,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,10 +1197,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -1267,10 +1219,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,40 +1230,40 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1319,7 +1271,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1330,35 +1282,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto-Documentacao/Tabela de Requisitos.xlsx
+++ b/Projeto-Documentacao/Tabela de Requisitos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Requisitos</t>
   </si>
@@ -50,12 +50,6 @@
     <t>RF3</t>
   </si>
   <si>
-    <t>RF4</t>
-  </si>
-  <si>
-    <t>RF5</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -93,11 +87,601 @@
   </si>
   <si>
     <r>
+      <t>O Software deve conter um</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Menu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, para opções.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Monitoramento'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Mostrando Graficos ao Usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Historico'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, que mostre ao usuario todo o controle de temperatura e umidade por dia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Alerta'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, que mostre ao usuario possiveis problemas detectados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Graficos deve mostrar taxas de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Temperatura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Umidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve ter um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Perfil'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Usuaruo, para poder editar (Nome, Foto, email, etc.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve ter um Botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Sair'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dando opção de termino ao usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alerta deve permitir que seja feito </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impressão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de documentos a qualquer instante.</t>
+    </r>
+  </si>
+  <si>
+    <t>RNF19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E necessario conexão com a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Internet' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para ter acesso ao site e ao Software.</t>
+    </r>
+  </si>
+  <si>
+    <t>RNF20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deve ser instalado um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'arduino'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para comandar o sensor e registrar os dados para o site</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Banco de dados'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SQL server) na nuvem para armazenamento de dados do usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> É necessario um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Computador'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> É opcional a ultilização de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Smart Phone'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
+    </r>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <r>
+      <t>A Página institucional deve conter um campo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Sobre Nós'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, contendo informações sobre a empresa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O Software deve conter um campo '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cadastro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', para guarda dados sobre o usuario. (Nome, Email, telefone,  etc.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Suporte'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, para o usuario dar opiniões e contaquitar a empresa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Página institucional deve conter um campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Orçamento'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(nome da empresa, representante e descrição).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cadastro deve dar opção ao usuario de ser um '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>administrador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' ou não. (podera criar outros usuarios).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cadastro deve dar opção ao usuario de receber '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notificação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' de alerta ou não. (podera receber notificação).</t>
+    </r>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <t>RF17</t>
+  </si>
+  <si>
+    <t>RF18</t>
+  </si>
+  <si>
+    <t>RNF21</t>
+  </si>
+  <si>
+    <t>RNF22</t>
+  </si>
+  <si>
+    <t>RNF23</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Software deve conter um campo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Login'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dando opção de acesso ao Usuario. (nome, senha).</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">A Página institucional deve conter um </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -108,6 +692,7 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -116,546 +701,13 @@
       </rPr>
       <t>, com apresentação inicial do site.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>A Página institucional deve conter um campo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Sobre'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, contendo informações sobre a empresa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Contato'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, com informacões ao usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cadastro deve dar opção ao usuario de ser um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>administrador</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ou não.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cadastro deve dar opção ao usuario de receber </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Notificação </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>de alerta ou não.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>O Software deve conter um</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Menu'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, para opções.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Monitoramento'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Mostrando Graficos ao Usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Historico'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, que mostre ao usuario todo o controle de temperatura e umidade por dia.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Alerta'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, que mostre ao usuario possiveis problemas detectados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Graficos deve mostrar taxas de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Temperatura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Umidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter um campo  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Login'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, dando opção de acesso ao Usuario. (nome, senha).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A Página institucional deve conter um campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Cadastro'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, para guarda dados sobre o usuario. (Nome, Email, telefone,  etc.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve ter um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Perfil'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de Usuaruo, para poder editar (Nome, Foto, email, etc.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve ter um Botão </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Sair'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, dando opção de termino ao usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alerta deve permitir que seja feito </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>impressão</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de documentos a qualquer instante.</t>
-    </r>
-  </si>
-  <si>
-    <t>RNF18</t>
-  </si>
-  <si>
-    <t>RNF19</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E necessario conexão com a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Internet' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>para ter acesso ao site e ao Software.</t>
-    </r>
-  </si>
-  <si>
-    <t>RNF20</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deve ser instalado um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'arduino'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para comandar o sensor e registrar os dados para o site</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Software deve conter um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Banco de dados'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (SQL server) na nuvem para armazenamento de dados do usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> É necessario um </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Computador'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> É opcional a ultilização de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Smart Phone'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para visualização do site, sistema e suas funcionalidades.</t>
-    </r>
-  </si>
-  <si>
-    <t>Desejavel</t>
-  </si>
-  <si>
-    <t>RNF16</t>
-  </si>
-  <si>
-    <t>RNF17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +725,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -699,10 +768,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,8 +809,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Requisitos"/>
     <tableColumn id="2" name="Descrição"/>
@@ -1047,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,11 +1145,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1098,32 +1168,32 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,32 +1212,32 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,98 +1267,109 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
